--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_8_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_8_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26431.76985471523</v>
+        <v>5259922.20108833</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26431.76985471523</v>
+        <v>5259922.20108833</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>53502.16631378737</v>
+        <v>4412527.619386872</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53502.16631378737</v>
+        <v>4412527.619386872</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609877477.459111</v>
+        <v>62803074.7088065</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12957.72375855041</v>
+        <v>1398185.74739757</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25431.92677209944</v>
+        <v>2720531.639746794</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37906.12978564846</v>
+        <v>4042877.532096019</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53087.91367834082</v>
+        <v>5325299.122233553</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>68071.0842376998</v>
+        <v>6568196.659037752</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>83054.25479705878</v>
+        <v>7811094.195841948</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98680.85969985208</v>
+        <v>9074478.68214109</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>114206.1230498376</v>
+        <v>10317427.41582308</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>131064.3899359112</v>
+        <v>11420047.62493665</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>146588.0453437551</v>
+        <v>12662945.16174084</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>162111.700751599</v>
+        <v>13905842.69854503</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>175381.798475893</v>
+        <v>15157824.53752703</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>188850.5095335203</v>
+        <v>16449330.42984237</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>204950.0639587056</v>
+        <v>17443499.29333339</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>222893.1349809898</v>
+        <v>18057766.64014421</v>
       </c>
     </row>
   </sheetData>
